--- a/ozone/multistate/ozone_VTZP_MS_3_SHAP.xlsx
+++ b/ozone/multistate/ozone_VTZP_MS_3_SHAP.xlsx
@@ -455,1281 +455,1281 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0005647432331891395</v>
+        <v>0.0006452643799128292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0004742269918420275</v>
+        <v>0.0005676304901157889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0004632992563036274</v>
+        <v>0.0004490983506936897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0003885048458510882</v>
+        <v>0.0004348376743007526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0002973231190580663</v>
+        <v>0.0003686050053618022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$\langle ss \vert ss \rangle$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.000264180129652834</v>
+        <v>0.0002955685258859937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$\langle qq \vert qq \rangle$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0002631898027871284</v>
+        <v>0.0002880438854858917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002440241259777172</v>
+        <v>0.0002680257963521393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.000214822674342633</v>
+        <v>0.000229703210684442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>h$_{q}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001999346359800596</v>
+        <v>0.0002196054821174036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001836672017796503</v>
+        <v>0.0001980662028362356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>h$_{q}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001786335873275421</v>
+        <v>0.0001883241697424466</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>(h$_{p}$)$_{3}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001586548256840868</v>
+        <v>0.0001851027724522971</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001573125783721762</v>
+        <v>0.0001639745483405215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001407674328062451</v>
+        <v>0.0001584063383886373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{0}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001277310076722562</v>
+        <v>0.0001510298148980414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001113879929597355</v>
+        <v>0.0001414018630385723</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$type_1$</t>
+          <t>$type_0$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001070443073299644</v>
+        <v>0.0001259477797896002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001051618254077777</v>
+        <v>0.0001199028399563651</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001025267396169695</v>
+        <v>0.0001120428061675983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{3}$</t>
+          <t>$type_2$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.85142182217898e-05</v>
+        <v>0.0001117313180768421</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$type_1$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.621378269437067e-05</v>
+        <v>0.0001062386994064854</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.236051891646034e-05</v>
+        <v>0.0001027583888226005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{1}$</t>
+          <t>(h$_{p}$)$_{1}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.862815803845089e-05</v>
+        <v>8.840688328115915e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>(h$_{r}$)$_{3}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.541336729578814e-05</v>
+        <v>7.875896605919218e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$type_3$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.271093200518039e-05</v>
+        <v>7.051713336611626e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.221658530667276e-05</v>
+        <v>6.930330293410511e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.645113549356731e-05</v>
+        <v>6.866538156326543e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$type_2$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.326548065946512e-05</v>
+        <v>6.467302692687425e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.216474506096286e-05</v>
+        <v>6.27160115583785e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>$type_3$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.170026393225737e-05</v>
+        <v>6.249088726275314e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$type_0$</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.09064082783579e-05</v>
+        <v>6.092870620127173e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.018501722198954e-05</v>
+        <v>5.733770311418953e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.98167569158325e-05</v>
+        <v>5.57098766760649e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>(h$_{rs}$)$_{2}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.742194626805043e-05</v>
+        <v>5.407213326719738e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.411581732437764e-05</v>
+        <v>5.256933241765515e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.247546653562215e-05</v>
+        <v>5.112908782209896e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.108799624220443e-05</v>
+        <v>4.965895350486868e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.794563128948815e-05</v>
+        <v>4.825572365251821e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.512722659498124e-05</v>
+        <v>4.700071295549369e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.406467362608874e-05</v>
+        <v>4.508793879191824e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.07057627721433e-05</v>
+        <v>4.110475809733391e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.909023672015655e-05</v>
+        <v>4.012516490460544e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.88438408170672e-05</v>
+        <v>3.760499141651858e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.872758902921965e-05</v>
+        <v>3.674867973806155e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{2}$</t>
+          <t>(h$_{rs}$)$_{3}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.869294759717561e-05</v>
+        <v>3.670433252911953e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.759343972666864e-05</v>
+        <v>3.66671450355537e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.716070876671278e-05</v>
+        <v>3.582487626925051e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.491123335042535e-05</v>
+        <v>3.56249074034505e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.394557341563665e-05</v>
+        <v>3.533242507024323e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.174032722507769e-05</v>
+        <v>3.378763930264296e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.141889397673483e-05</v>
+        <v>3.26005651210156e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.905857906093088e-05</v>
+        <v>2.897389474922522e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{2}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.887185845667729e-05</v>
+        <v>2.839294427104322e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.829306732425518e-05</v>
+        <v>2.772709747530325e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.267354277920143e-05</v>
+        <v>2.668091686907243e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.258883579499569e-05</v>
+        <v>2.627749570700995e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>(h$_{rs}$)$_{1}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.203836645817107e-05</v>
+        <v>2.492647520285537e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.166767482728797e-05</v>
+        <v>2.477392234792304e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.10416470376665e-05</v>
+        <v>2.342797975650235e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.098904902029094e-05</v>
+        <v>2.312288876694215e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>(h$_{r}$)$_{2}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.04467965318855e-05</v>
+        <v>2.277834664688911e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.043043975926279e-05</v>
+        <v>2.128013167512862e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.995627914091497e-05</v>
+        <v>2.108250539013234e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.979191772408111e-05</v>
+        <v>2.089854873141013e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.947771418506115e-05</v>
+        <v>2.08200490479856e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.910752166741859e-05</v>
+        <v>2.04247744305793e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.903866305611164e-05</v>
+        <v>2.028026533442912e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.840577172421374e-05</v>
+        <v>1.977204831291176e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.762387270999463e-05</v>
+        <v>1.882829049033408e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.712762908988114e-05</v>
+        <v>1.866457769341221e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.668149766162172e-05</v>
+        <v>1.629105006946149e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>(h$_{pq}$)$_{2}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.482755898197231e-05</v>
+        <v>1.558267085962702e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.430383414330142e-05</v>
+        <v>1.40853199431953e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.364068784947205e-05</v>
+        <v>1.280733631714775e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.326536947609639e-05</v>
+        <v>1.049611524225727e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{2}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.059195003389122e-05</v>
+        <v>1.023862719035597e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.007426799326209e-05</v>
+        <v>9.818870200539328e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8.786508083049525e-06</v>
+        <v>9.483150648048282e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{0}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8.700285091132959e-06</v>
+        <v>8.366920728834535e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7.660184870670109e-06</v>
+        <v>8.11562437475784e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.146957645688406e-06</v>
+        <v>7.746393625712896e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5.781160852084874e-06</v>
+        <v>7.742309461364584e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.035351289558873e-06</v>
+        <v>4.962694390588154e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.929842114828474e-06</v>
+        <v>2.485987896206819e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.400764784422548e-06</v>
+        <v>2.030209755827987e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.234953168689664e-06</v>
+        <v>9.200227091871374e-07</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.816536161846631e-07</v>
+        <v>9.128980470705568e-07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>9.934707951994238e-08</v>
+        <v>8.051026684544445e-08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9.056160477541208e-08</v>
+        <v>7.252555129981592e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8.811112134139863e-08</v>
+        <v>6.940394214833861e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8.638600931181142e-08</v>
+        <v>6.229002567952125e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.60599761242332e-08</v>
+        <v>6.189588666967677e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.377958703115569e-08</v>
+        <v>5.851888064932223e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.268005104635405e-08</v>
+        <v>5.8016930263624e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6.842586781854395e-08</v>
+        <v>5.692558722112908e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6.726573931368552e-08</v>
+        <v>5.676730844392174e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6.160373026687331e-08</v>
+        <v>5.46033832284967e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6.060970468755378e-08</v>
+        <v>5.419076152925294e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5.025727349113485e-08</v>
+        <v>4.149926934565537e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3.695807876111622e-08</v>
+        <v>2.723793597095242e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2.641392643576033e-08</v>
+        <v>1.104432350670719e-08</v>
       </c>
     </row>
   </sheetData>
